--- a/xlsx/超验主义_intext.xlsx
+++ b/xlsx/超验主义_intext.xlsx
@@ -29,7 +29,7 @@
     <t>新英格兰</t>
   </si>
   <si>
-    <t>政策_政策_美國_超验主义</t>
+    <t>政策_政策_美国_超验主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E8%A6%BA</t>
   </si>
   <si>
-    <t>感覺</t>
+    <t>感觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>命定論</t>
+    <t>命定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%9E%97%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>卡洛林藝術</t>
+    <t>卡洛林艺术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ottonian_art</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%93%A5%E7%89%B9%E5%BC%8F%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>國際哥特式藝術</t>
+    <t>国际哥特式艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E5%B0%BC%E5%BE%B7%E8%98%AD%E7%B9%AA%E7%95%AB</t>
   </si>
   <si>
-    <t>早期尼德蘭繪畫</t>
+    <t>早期尼德兰绘画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E5%85%A8%E7%9B%9B%E6%9C%9F</t>
   </si>
   <si>
-    <t>文藝復興全盛期</t>
+    <t>文艺复兴全盛期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%A0%BC%E4%B8%BB%E4%B9%89</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E7%93%A6%E5%96%AC%E4%B8%BB%E7%BE%A9%E8%80%85</t>
   </si>
   <si>
-    <t>卡拉瓦喬主義者</t>
+    <t>卡拉瓦乔主义者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典主義</t>
+    <t>古典主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3%E7%B9%AA%E7%95%AB</t>
   </si>
   <si>
-    <t>荷蘭黃金時代繪畫</t>
+    <t>荷兰黄金时代绘画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%8F%AF%E5%8F%AF</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E5%BE%B7%E9%BA%A5%E9%9B%85</t>
   </si>
   <si>
-    <t>畢德麥雅</t>
+    <t>毕德麦雅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gr%C3%BCnderzeit</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%B9%E5%BB%A2%E4%B8%BB%E7%BE%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>頹廢主義運動</t>
+    <t>颓废主义运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E5%9B%9E%E5%B1%95%E8%A7%88%E7%94%BB%E6%B4%BE</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%9A%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>分隔主義</t>
+    <t>分隔主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E6%AF%94%E6%B4%BE</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E5%90%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>綜合主義</t>
+    <t>综合主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kalighat_painting</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>奧費主義</t>
+    <t>奥费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>純粹主義</t>
+    <t>纯粹主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Synchromism</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kinetic_art</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E9%A8%8E%E5%A3%AB</t>
   </si>
   <si>
-    <t>藍騎士</t>
+    <t>蓝骑士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%A5%E7%A4%BE</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%B3%E7%89%A9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新即物主義</t>
+    <t>新即物主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E7%AE%B1%E7%94%BB%E6%B4%BE</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A2%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>精確主義</t>
+    <t>精确主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%89%BA%E6%9C%AF%E8%BF%90%E5%8A%A8</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E7%9B%B8%E5%AF%AB%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>照相寫實主義</t>
+    <t>照相写实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E4%B8%BB%E4%B9%89</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A9%E6%B8%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>漩渦主義</t>
+    <t>漩涡主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%B3%E4%B8%8A%E4%B8%BB%E4%B9%89</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%B0%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極簡主義</t>
+    <t>极简主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nouveau_r%C3%A9alisme</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%91%E9%BB%9E%E6%B4%BE</t>
   </si>
   <si>
-    <t>斑點派</t>
+    <t>斑点派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/COBRA_(avant-garde_movement)</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新表現主義</t>
+    <t>新表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%A4%96%E8%89%BA%E6%9C%AF</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%A6%82%E5%BF%B5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反概念主義</t>
+    <t>反概念主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Remodernism</t>
